--- a/data/trans_orig/P1425-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8775</v>
+        <v>8114</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006243009319751132</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001971501810122077</v>
+        <v>0.001975501540547341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01852161891936751</v>
+        <v>0.0171253904698299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8536</v>
+        <v>8301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009902668277179918</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003055018335198872</v>
+        <v>0.003044088834868006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02783247542020421</v>
+        <v>0.0270669537891875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2102</v>
+        <v>2865</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12842</v>
+        <v>12409</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007681071726353557</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002692982109117018</v>
+        <v>0.003670801032234448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01645494892144195</v>
+        <v>0.01589936293917076</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>470818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>465001</v>
+        <v>465662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472842</v>
+        <v>472840</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9937569906802489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9814783810806326</v>
+        <v>0.98287460953017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9980284981898779</v>
+        <v>0.9980244984594526</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>295</v>
@@ -835,19 +835,19 @@
         <v>303643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298144</v>
+        <v>298379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305743</v>
+        <v>305746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9900973317228201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9721675245797959</v>
+        <v>0.9729330462108119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9969449816648011</v>
+        <v>0.9969559111651319</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>747</v>
@@ -856,19 +856,19 @@
         <v>774462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>767615</v>
+        <v>768048</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>778355</v>
+        <v>777592</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9923189282736464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9835450510785584</v>
+        <v>0.9841006370608292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9973070178908829</v>
+        <v>0.9963291989677655</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>5387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1876</v>
+        <v>1901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11743</v>
+        <v>12638</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01468007804269158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005112079489257165</v>
+        <v>0.005179679126040422</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03200402731579677</v>
+        <v>0.03444167280642758</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -981,19 +981,19 @@
         <v>4175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10365</v>
+        <v>10627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01122750677307302</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00288650383995622</v>
+        <v>0.002881572823931207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02787205158296243</v>
+        <v>0.0285765718282844</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1002,19 +1002,19 @@
         <v>9562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4217</v>
+        <v>4104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18272</v>
+        <v>17862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01294227122171049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005708495362354645</v>
+        <v>0.005555500553072239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.024731569175256</v>
+        <v>0.02417734569050894</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>361547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>355191</v>
+        <v>354296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365058</v>
+        <v>365033</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9853199219573084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9679959726842032</v>
+        <v>0.9655583271935723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9948879205107428</v>
+        <v>0.9948203208739597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -1052,19 +1052,19 @@
         <v>367690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361500</v>
+        <v>361238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370792</v>
+        <v>370793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.988772493226927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9721279484170381</v>
+        <v>0.9714234281717158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971134961600437</v>
+        <v>0.9971184271760688</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>704</v>
@@ -1073,19 +1073,19 @@
         <v>729237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>720527</v>
+        <v>720937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734582</v>
+        <v>734695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9870577287782895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.975268430824744</v>
+        <v>0.9758226543094911</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9942915046376454</v>
+        <v>0.9944444994469278</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>4735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1847</v>
+        <v>1815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10732</v>
+        <v>10410</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008729990292175671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003405174669956852</v>
+        <v>0.003347171356412995</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01978607714525519</v>
+        <v>0.0191928262407965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7202</v>
+        <v>6711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01194765548903597</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04292308596751233</v>
+        <v>0.03999916119046212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1219,19 +1219,19 @@
         <v>6740</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2952</v>
+        <v>2870</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13207</v>
+        <v>14014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009490181856332131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004156256682947542</v>
+        <v>0.004040902354111776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01859622851450889</v>
+        <v>0.01973348893491854</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>537654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>531657</v>
+        <v>531979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540542</v>
+        <v>540574</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9912700097078243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9802139228547447</v>
+        <v>0.9808071737592033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965948253300432</v>
+        <v>0.996652828643587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -1269,7 +1269,7 @@
         <v>165777</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160580</v>
+        <v>161071</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>167782</v>
@@ -1278,7 +1278,7 @@
         <v>0.988052344510964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9570769140324876</v>
+        <v>0.9600008388095377</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1290,19 +1290,19 @@
         <v>703431</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>696964</v>
+        <v>696157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>707219</v>
+        <v>707301</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9905098181436679</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9814037714854912</v>
+        <v>0.980266511065082</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958437433170525</v>
+        <v>0.9959590976458882</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>14564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8557</v>
+        <v>8648</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23551</v>
+        <v>23244</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01176117095081186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00690989705466659</v>
+        <v>0.006983625778122286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01901798836019034</v>
+        <v>0.01877074321965642</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1415,19 +1415,19 @@
         <v>8707</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4433</v>
+        <v>3929</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15739</v>
+        <v>15581</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01219018937327952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006206905891372487</v>
+        <v>0.005501030415576712</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02203447360339708</v>
+        <v>0.0218134638527837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1436,19 +1436,19 @@
         <v>23272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14842</v>
+        <v>15677</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33913</v>
+        <v>34851</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01191810963208333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007601143639101706</v>
+        <v>0.008028498447401906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01736811668149291</v>
+        <v>0.01784810011246407</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1223770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1214783</v>
+        <v>1215090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1229777</v>
+        <v>1229686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9882388290491881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9809820116398097</v>
+        <v>0.9812292567803436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9930901029453334</v>
+        <v>0.9930163742218777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>685</v>
@@ -1486,19 +1486,19 @@
         <v>705578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>698546</v>
+        <v>698704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>709852</v>
+        <v>710356</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9878098106267205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9779655263966029</v>
+        <v>0.9781865361472163</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9937930941086276</v>
+        <v>0.9944989695844233</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1894</v>
@@ -1507,19 +1507,19 @@
         <v>1929348</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1918707</v>
+        <v>1917769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1937778</v>
+        <v>1936943</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9880818903679167</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.982631883318507</v>
+        <v>0.9821518998875358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9923988563608982</v>
+        <v>0.9919715015525981</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>8131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3963</v>
+        <v>3839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15716</v>
+        <v>15934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02319470948596399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01130444008454222</v>
+        <v>0.01095253126730145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04483181673277508</v>
+        <v>0.04545502554683176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1632,19 +1632,19 @@
         <v>7890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3363</v>
+        <v>3529</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15452</v>
+        <v>15781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01387326408967298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005913820106931908</v>
+        <v>0.00620528550447284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02716765958656252</v>
+        <v>0.0277468753733488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1653,19 +1653,19 @@
         <v>16021</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9127</v>
+        <v>9819</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25926</v>
+        <v>26364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01742776918074913</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009927804619144807</v>
+        <v>0.01068134381769725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02820147684501677</v>
+        <v>0.02867820265574804</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>342424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>334839</v>
+        <v>334621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>346592</v>
+        <v>346716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.976805290514036</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9551681832672247</v>
+        <v>0.9545449744531681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9886955599154577</v>
+        <v>0.9890474687326984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>531</v>
@@ -1703,19 +1703,19 @@
         <v>560862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>553300</v>
+        <v>552971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>565389</v>
+        <v>565223</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9861267359103271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.972832340413437</v>
+        <v>0.972253124626651</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9940861798930678</v>
+        <v>0.9937947144955271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>863</v>
@@ -1724,19 +1724,19 @@
         <v>903286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>893381</v>
+        <v>892943</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>910180</v>
+        <v>909488</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9825722308192508</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9717985231549832</v>
+        <v>0.9713217973442518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9900721953808552</v>
+        <v>0.9893186561823026</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>4957</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1895</v>
+        <v>1963</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11953</v>
+        <v>11273</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01662467335495103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006355397089976589</v>
+        <v>0.006581152778272406</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04008417350462008</v>
+        <v>0.03780456703090567</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1849,19 +1849,19 @@
         <v>11033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5381</v>
+        <v>5626</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19632</v>
+        <v>20272</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008835542740486665</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00430891794443946</v>
+        <v>0.004505462702643105</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0157215795070514</v>
+        <v>0.01623405071102066</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -1870,19 +1870,19 @@
         <v>15991</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9302</v>
+        <v>9324</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25389</v>
+        <v>26819</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01033701818815013</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006013112394132585</v>
+        <v>0.006027292252404253</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01641202788095587</v>
+        <v>0.01733627167646579</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>293244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>286248</v>
+        <v>286928</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296306</v>
+        <v>296238</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.983375326645049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9599158264953797</v>
+        <v>0.9621954329690934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9936446029100233</v>
+        <v>0.9934188472217276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1228</v>
@@ -1920,19 +1920,19 @@
         <v>1237727</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1229128</v>
+        <v>1228488</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1243379</v>
+        <v>1243134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9911644572595133</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9842784204929482</v>
+        <v>0.9837659492889792</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9956910820555605</v>
+        <v>0.9954945372973569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1529</v>
@@ -1941,19 +1941,19 @@
         <v>1530969</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1521571</v>
+        <v>1520141</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1537658</v>
+        <v>1537636</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9896629818118499</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9835879721190441</v>
+        <v>0.9826637283235342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9939868876058675</v>
+        <v>0.9939727077475957</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>40732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30539</v>
+        <v>29479</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53847</v>
+        <v>54295</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01245561906823371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009338450705635215</v>
+        <v>0.009014512948372876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01646590053839337</v>
+        <v>0.01660311549022981</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -2066,19 +2066,19 @@
         <v>36848</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25460</v>
+        <v>26592</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50650</v>
+        <v>51845</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01090778692176614</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00753682930431741</v>
+        <v>0.007871909077679286</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01499358192634788</v>
+        <v>0.015347185064807</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -2087,19 +2087,19 @@
         <v>77580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61831</v>
+        <v>62238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94994</v>
+        <v>96956</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01166913862542741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009300190097409561</v>
+        <v>0.009361425263142561</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01428850453533014</v>
+        <v>0.01458357375179783</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>3229458</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3216343</v>
+        <v>3215895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3239651</v>
+        <v>3240711</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9875443809317663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9835340994616066</v>
+        <v>0.9833968845097704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9906615492943648</v>
+        <v>0.9909854870516273</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3260</v>
@@ -2137,19 +2137,19 @@
         <v>3341276</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3327474</v>
+        <v>3326279</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3352664</v>
+        <v>3351532</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9890922130782338</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9850064180736522</v>
+        <v>0.9846528149351931</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9924631706956826</v>
+        <v>0.9921280909223207</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6426</v>
@@ -2158,19 +2158,19 @@
         <v>6570734</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6553320</v>
+        <v>6551358</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6586483</v>
+        <v>6586076</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9883308613745726</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9857114954646696</v>
+        <v>0.9854164262482015</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9906998099025904</v>
+        <v>0.9906385747368572</v>
       </c>
     </row>
     <row r="24">
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5125</v>
+        <v>5599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002105691975354085</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01172210094640662</v>
+        <v>0.01280703715152321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5162</v>
+        <v>5322</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00331315148261833</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01641505367565739</v>
+        <v>0.01692605849030811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6998</v>
+        <v>6895</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002610824929352558</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00930934380119639</v>
+        <v>0.009172716856533385</v>
       </c>
     </row>
     <row r="5">
@@ -2575,7 +2575,7 @@
         <v>436290</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432086</v>
+        <v>431612</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2584,7 +2584,7 @@
         <v>0.997894308024646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9882778990535932</v>
+        <v>0.9871929628484767</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>313412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309292</v>
+        <v>309132</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -2605,7 +2605,7 @@
         <v>0.9966868485173817</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9835849463243426</v>
+        <v>0.9830739415096919</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2617,7 +2617,7 @@
         <v>749703</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>744667</v>
+        <v>744770</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>751665</v>
@@ -2626,7 +2626,7 @@
         <v>0.9973891750706474</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.990690656198804</v>
+        <v>0.9908272831434668</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2721,19 +2721,19 @@
         <v>5574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15736</v>
+        <v>15551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01330972718301755</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002717985547054961</v>
+        <v>0.002738317277371353</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0375734409038753</v>
+        <v>0.03713245485447694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8882</v>
+        <v>10551</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00526634448315587</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02627696390616475</v>
+        <v>0.03121593797300216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2763,19 +2763,19 @@
         <v>7354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19675</v>
+        <v>19698</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009717333312845695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00290048970197039</v>
+        <v>0.002903534464700203</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02599719008204366</v>
+        <v>0.02602748315411473</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>413223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403061</v>
+        <v>403246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417659</v>
+        <v>417650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866902728169824</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9624265590961247</v>
+        <v>0.9628675451455232</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9972820144529451</v>
+        <v>0.9972616827226286</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>304</v>
@@ -2813,7 +2813,7 @@
         <v>336231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>329129</v>
+        <v>327460</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -2822,7 +2822,7 @@
         <v>0.9947336555168441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9737230360938353</v>
+        <v>0.9687840620269978</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2834,19 +2834,19 @@
         <v>749454</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>737133</v>
+        <v>737110</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>754613</v>
+        <v>754611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9902826666871543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9740028099179564</v>
+        <v>0.9739725168458853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970995102980297</v>
+        <v>0.9970964655352998</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>2950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8116</v>
+        <v>7946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004686986546089404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001483190288107683</v>
+        <v>0.001472743894527866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01289467160964404</v>
+        <v>0.01262497290659371</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6553</v>
+        <v>7502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008276774641615954</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02519290100580395</v>
+        <v>0.02883931485722327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2980,19 +2980,19 @@
         <v>5103</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1098</v>
+        <v>1960</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11315</v>
+        <v>11269</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005736748299253944</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001234651473049144</v>
+        <v>0.002203548075672867</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0127199335308698</v>
+        <v>0.01266836599013404</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>626465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>621299</v>
+        <v>621469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628481</v>
+        <v>628488</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9953130134539105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9871053283903559</v>
+        <v>0.9873750270934057</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985168097118924</v>
+        <v>0.9985272561054722</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -3030,7 +3030,7 @@
         <v>257976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>253576</v>
+        <v>252627</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>260129</v>
@@ -3039,7 +3039,7 @@
         <v>0.9917232253583841</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.974807098994196</v>
+        <v>0.9711606851427766</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3051,19 +3051,19 @@
         <v>884441</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>878229</v>
+        <v>878275</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>888446</v>
+        <v>887584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.994263251700746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9872800664691301</v>
+        <v>0.9873316340098659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9987653485269509</v>
+        <v>0.9977964519243271</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>9164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3935</v>
+        <v>4041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17689</v>
+        <v>18507</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00790694369341823</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003395450927799983</v>
+        <v>0.003486189511496122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01526192774090969</v>
+        <v>0.0159683756272737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3176,19 +3176,19 @@
         <v>3085</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8204</v>
+        <v>8700</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004034024809387075</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001244230224388072</v>
+        <v>0.001231181638723536</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01072798961044362</v>
+        <v>0.01137649901887498</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -3197,19 +3197,19 @@
         <v>12249</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6256</v>
+        <v>6148</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22525</v>
+        <v>21087</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006367380031942922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003251818829146679</v>
+        <v>0.003195661683506861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01170918450688345</v>
+        <v>0.01096160119532191</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>1149845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1141320</v>
+        <v>1140502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1155074</v>
+        <v>1154968</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9920930563065817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9847380722590903</v>
+        <v>0.9840316243727263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966045490722</v>
+        <v>0.996513810488504</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>707</v>
@@ -3247,19 +3247,19 @@
         <v>761637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>756518</v>
+        <v>756022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>763771</v>
+        <v>763780</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9959659751906129</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9892720103895564</v>
+        <v>0.9886235009811255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9987557697756119</v>
+        <v>0.9987688183612765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1782</v>
@@ -3268,19 +3268,19 @@
         <v>1911482</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1901206</v>
+        <v>1902644</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1917475</v>
+        <v>1917583</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9936326199680571</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9882908154931169</v>
+        <v>0.9890383988046785</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9967481811708533</v>
+        <v>0.9968043383164932</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>8327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3976</v>
+        <v>3810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16118</v>
+        <v>14797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01630781805662969</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00778737379931158</v>
+        <v>0.007461588342171281</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03156761231714159</v>
+        <v>0.02897898171788793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3393,19 +3393,19 @@
         <v>4253</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9993</v>
+        <v>10388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005594540991631058</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001387874655670127</v>
+        <v>0.00139744943659531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01314461379190452</v>
+        <v>0.01366460215641294</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3414,19 +3414,19 @@
         <v>12580</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6297</v>
+        <v>6421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20466</v>
+        <v>20864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009898897406664898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004955073911517752</v>
+        <v>0.005052566428994663</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0161040637202387</v>
+        <v>0.01641777602551183</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>502269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>494478</v>
+        <v>495799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>506620</v>
+        <v>506786</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9836921819433703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9684323876828587</v>
+        <v>0.9710210182821127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9922126262006885</v>
+        <v>0.9925384116578289</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>698</v>
@@ -3464,19 +3464,19 @@
         <v>755993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>750253</v>
+        <v>749858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>759191</v>
+        <v>759184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.994405459008369</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9868553862080953</v>
+        <v>0.9863353978435869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9986121253443299</v>
+        <v>0.9986025505634047</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1177</v>
@@ -3485,19 +3485,19 @@
         <v>1258263</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1250377</v>
+        <v>1249979</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1264546</v>
+        <v>1264422</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9901011025933351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9838959362797619</v>
+        <v>0.9835822239744884</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9950449260884823</v>
+        <v>0.9949474335710055</v>
       </c>
     </row>
     <row r="18">
@@ -3589,19 +3589,19 @@
         <v>3844</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9584</v>
+        <v>8885</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01440421529609948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003615401845893315</v>
+        <v>0.00360238506486361</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03590939264623338</v>
+        <v>0.03329102661362127</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -3610,19 +3610,19 @@
         <v>9141</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4328</v>
+        <v>4283</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18657</v>
+        <v>17683</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008240054550947533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003901650855724244</v>
+        <v>0.003861248598675327</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01681782277321715</v>
+        <v>0.01594022512338519</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -3631,19 +3631,19 @@
         <v>12985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6891</v>
+        <v>7224</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22153</v>
+        <v>22234</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009435421088187458</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005007237249374195</v>
+        <v>0.005249257087622571</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01609696762312523</v>
+        <v>0.01615596491170276</v>
       </c>
     </row>
     <row r="20">
@@ -3660,19 +3660,19 @@
         <v>263038</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257298</v>
+        <v>257997</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265917</v>
+        <v>265921</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9855957847039005</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9640906073537666</v>
+        <v>0.9667089733863794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963845981541066</v>
+        <v>0.9963976149351363</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1036</v>
@@ -3681,19 +3681,19 @@
         <v>1100210</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1090694</v>
+        <v>1091668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1105023</v>
+        <v>1105068</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9917599454490524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.983182177226783</v>
+        <v>0.9840597748766143</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9960983491442759</v>
+        <v>0.9961387514013246</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1297</v>
@@ -3702,19 +3702,19 @@
         <v>1363248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1354080</v>
+        <v>1353999</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1369342</v>
+        <v>1369009</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9905645789118125</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9839030323768747</v>
+        <v>0.983844035088297</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9949927627506258</v>
+        <v>0.9947507429123773</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>30780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20454</v>
+        <v>20162</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45606</v>
+        <v>44399</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008994953326863241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005977258216601439</v>
+        <v>0.00589205552939975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01332753205467343</v>
+        <v>0.01297504335577921</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -3827,19 +3827,19 @@
         <v>21454</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13214</v>
+        <v>12765</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32471</v>
+        <v>33456</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006048694690613469</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003725416312703296</v>
+        <v>0.003598788622223418</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009154710401735685</v>
+        <v>0.009432350777224961</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -3848,19 +3848,19 @@
         <v>52234</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37725</v>
+        <v>38857</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68364</v>
+        <v>70655</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007495399463315225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005413347249114394</v>
+        <v>0.005575798558533768</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009809946388961419</v>
+        <v>0.01013874820159148</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>3391130</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3376304</v>
+        <v>3377511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3401456</v>
+        <v>3401748</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9910050466731367</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9866724679453268</v>
+        <v>0.9870249566442206</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9940227417833986</v>
+        <v>0.9941079444706001</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3269</v>
@@ -3898,19 +3898,19 @@
         <v>3525461</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3514444</v>
+        <v>3513459</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3533701</v>
+        <v>3534150</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9939513053093866</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9908452895982646</v>
+        <v>0.9905676492227751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9962745836872969</v>
+        <v>0.9964012113777766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6447</v>
@@ -3919,19 +3919,19 @@
         <v>6916591</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6900461</v>
+        <v>6898170</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6931100</v>
+        <v>6929968</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9925046005366848</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9901900536110385</v>
+        <v>0.9898612517984088</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9945866527508854</v>
+        <v>0.9944242014414664</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>3006</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8225</v>
+        <v>8054</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007006527364719178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002264410987862262</v>
+        <v>0.002261653613705502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01916858590862102</v>
+        <v>0.01876995919069157</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7103</v>
+        <v>6120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00577589333696043</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02046689439850185</v>
+        <v>0.01763295086916974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4307,19 +4307,19 @@
         <v>5011</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1950</v>
+        <v>1968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11171</v>
+        <v>10925</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00645624807076213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002512570233830115</v>
+        <v>0.002535340101622534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01439260069863741</v>
+        <v>0.01407544188382978</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>426086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>420867</v>
+        <v>421038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428120</v>
+        <v>428122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9929934726352808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9808314140913789</v>
+        <v>0.9812300408093084</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977355890121378</v>
+        <v>0.9977383463862944</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -4357,7 +4357,7 @@
         <v>345050</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>339952</v>
+        <v>340935</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -4366,7 +4366,7 @@
         <v>0.9942241066630396</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9795331056014983</v>
+        <v>0.9823670491308303</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4378,19 +4378,19 @@
         <v>771136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>764976</v>
+        <v>765222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774197</v>
+        <v>774179</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9935437519292378</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9856073993013625</v>
+        <v>0.9859245581161702</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9974874297661699</v>
+        <v>0.9974646598983775</v>
       </c>
     </row>
     <row r="6">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6788</v>
+        <v>6832</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005148678795493</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01799518716235819</v>
+        <v>0.01811126925032228</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4881</v>
+        <v>5792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002791301122467287</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01311041946504532</v>
+        <v>0.01555897231718881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -4524,19 +4524,19 @@
         <v>2981</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8407</v>
+        <v>7675</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003977780352766367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001282415591470122</v>
+        <v>0.001289021721472717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01121641255846446</v>
+        <v>0.01024066960722443</v>
       </c>
     </row>
     <row r="8">
@@ -4553,7 +4553,7 @@
         <v>375285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370439</v>
+        <v>370395</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -4562,7 +4562,7 @@
         <v>0.994851321204507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9820048128376416</v>
+        <v>0.9818887307496779</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4574,7 +4574,7 @@
         <v>371234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367392</v>
+        <v>366481</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>372273</v>
@@ -4583,7 +4583,7 @@
         <v>0.9972086988775327</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9868895805349556</v>
+        <v>0.9844410276828115</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4595,19 +4595,19 @@
         <v>746519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>741093</v>
+        <v>741825</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748539</v>
+        <v>748534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9960222196472336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9887835874415373</v>
+        <v>0.9897593303927776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9987175844085299</v>
+        <v>0.9987109782785273</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>5637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1796</v>
+        <v>1852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13084</v>
+        <v>14110</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01080006352515098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00344113203028335</v>
+        <v>0.003548945252590385</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02507001189499809</v>
+        <v>0.02703595444015526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4733,19 +4733,19 @@
         <v>5637</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1832</v>
+        <v>1808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12873</v>
+        <v>14538</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008192444814535814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002662743560332541</v>
+        <v>0.002628411847305223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01871035055111516</v>
+        <v>0.02112946373152902</v>
       </c>
     </row>
     <row r="11">
@@ -4762,19 +4762,19 @@
         <v>516277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508830</v>
+        <v>507804</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520118</v>
+        <v>520062</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9891999364748491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.974929988105002</v>
+        <v>0.9729640455598447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965588679697167</v>
+        <v>0.9964510547474096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -4796,19 +4796,19 @@
         <v>682399</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>675163</v>
+        <v>673498</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686204</v>
+        <v>686228</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9918075551854642</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812896494488843</v>
+        <v>0.978870536268472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9973372564396674</v>
+        <v>0.9973715881526948</v>
       </c>
     </row>
     <row r="12">
@@ -4900,19 +4900,19 @@
         <v>8403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3767</v>
+        <v>3842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16005</v>
+        <v>15211</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007309401750391992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00327707569564878</v>
+        <v>0.003342241754236203</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01392140948501889</v>
+        <v>0.01323085893480068</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4921,19 +4921,19 @@
         <v>5508</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1284</v>
+        <v>1978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13950</v>
+        <v>13322</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006668950215953948</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001554920197281675</v>
+        <v>0.002395154410402821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01689138160243693</v>
+        <v>0.01613103685330145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -4942,19 +4942,19 @@
         <v>13911</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6849</v>
+        <v>7609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23162</v>
+        <v>23656</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00704165705236828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003467027894585226</v>
+        <v>0.003851898743623457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01172458045099086</v>
+        <v>0.01197473518009866</v>
       </c>
     </row>
     <row r="14">
@@ -4971,19 +4971,19 @@
         <v>1141235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1133633</v>
+        <v>1134427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1145871</v>
+        <v>1145796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.992690598249608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9860785905149811</v>
+        <v>0.9867691410651994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9967229243043513</v>
+        <v>0.9966577582457637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>794</v>
@@ -4992,19 +4992,19 @@
         <v>820368</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>811926</v>
+        <v>812554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>824592</v>
+        <v>823898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9933310497840461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9831086183975628</v>
+        <v>0.9838689631466986</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984450798027182</v>
+        <v>0.9976048455895972</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1888</v>
@@ -5013,19 +5013,19 @@
         <v>1961603</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1952352</v>
+        <v>1951858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1968665</v>
+        <v>1967905</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9929583429476317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9882754195490091</v>
+        <v>0.9880252648199015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9965329721054148</v>
+        <v>0.9961481012563765</v>
       </c>
     </row>
     <row r="15">
@@ -5117,19 +5117,19 @@
         <v>6503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2404</v>
+        <v>2426</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14604</v>
+        <v>13508</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01047626135481756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003872229831112424</v>
+        <v>0.003908073229837699</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02352787939391634</v>
+        <v>0.02176268813743127</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5138,19 +5138,19 @@
         <v>9234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3559</v>
+        <v>4041</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17427</v>
+        <v>19967</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0125074295537584</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004821497102510407</v>
+        <v>0.005473281161999979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02360554204882727</v>
+        <v>0.02704719721332369</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -5159,19 +5159,19 @@
         <v>15736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8995</v>
+        <v>8584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26492</v>
+        <v>26348</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01157968531276606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006618946451802425</v>
+        <v>0.006316649046806967</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01949478210313355</v>
+        <v>0.01938852784555484</v>
       </c>
     </row>
     <row r="17">
@@ -5188,19 +5188,19 @@
         <v>614203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>606102</v>
+        <v>607198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>618302</v>
+        <v>618280</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9895237386451824</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9764721206060836</v>
+        <v>0.9782373118625688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961277701688872</v>
+        <v>0.9960919267701623</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>692</v>
@@ -5209,19 +5209,19 @@
         <v>729010</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>720817</v>
+        <v>718277</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>734685</v>
+        <v>734203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9874925704462416</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9763944579511731</v>
+        <v>0.9729528027866764</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9951785028974897</v>
+        <v>0.9945267188380003</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1283</v>
@@ -5230,19 +5230,19 @@
         <v>1343214</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1332458</v>
+        <v>1332602</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1349955</v>
+        <v>1350366</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9884203146872339</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9805052178968665</v>
+        <v>0.9806114721544456</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9933810535481976</v>
+        <v>0.9936833509531932</v>
       </c>
     </row>
     <row r="18">
@@ -5334,19 +5334,19 @@
         <v>6040</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1974</v>
+        <v>2844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12849</v>
+        <v>12241</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02103488374099477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006874806166207907</v>
+        <v>0.009902669359626606</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04474595035212316</v>
+        <v>0.04262894886752751</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5355,19 +5355,19 @@
         <v>15971</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9206</v>
+        <v>9487</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24727</v>
+        <v>26557</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01476015638701404</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008508143406045948</v>
+        <v>0.008767659351318288</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02285284379873024</v>
+        <v>0.02454409095043695</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -5376,19 +5376,19 @@
         <v>22011</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14449</v>
+        <v>14264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33196</v>
+        <v>32198</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01607610510901789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01055326349413035</v>
+        <v>0.01041799082907958</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02424521687243507</v>
+        <v>0.02351609729578008</v>
       </c>
     </row>
     <row r="20">
@@ -5405,19 +5405,19 @@
         <v>281105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274296</v>
+        <v>274904</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285171</v>
+        <v>284301</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9789651162590052</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9552540496478772</v>
+        <v>0.9573710511324722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9931251938337921</v>
+        <v>0.9900973306403734</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>977</v>
@@ -5426,19 +5426,19 @@
         <v>1066054</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1057298</v>
+        <v>1055468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1072819</v>
+        <v>1072538</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.985239843612986</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.97714715620127</v>
+        <v>0.9754559090495634</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9914918565939541</v>
+        <v>0.9912323406486817</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1243</v>
@@ -5447,19 +5447,19 @@
         <v>1347159</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1335974</v>
+        <v>1336972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1354721</v>
+        <v>1354906</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9839238948909821</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9757547831275647</v>
+        <v>0.97648390270422</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9894467365058696</v>
+        <v>0.9895820091709205</v>
       </c>
     </row>
     <row r="21">
@@ -5551,19 +5551,19 @@
         <v>31531</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21579</v>
+        <v>21312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43980</v>
+        <v>44313</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009313013703168845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006373645581556174</v>
+        <v>0.006294677406399987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0129898614461365</v>
+        <v>0.01308811788907319</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -5572,19 +5572,19 @@
         <v>33756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22609</v>
+        <v>23414</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49062</v>
+        <v>47271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009558227317883083</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006401807566434914</v>
+        <v>0.006629926474632159</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01389223907222961</v>
+        <v>0.01338522287967717</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -5593,19 +5593,19 @@
         <v>65287</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50161</v>
+        <v>49028</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83159</v>
+        <v>81412</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009438206065852075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007251581304911022</v>
+        <v>0.007087730801925654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01202187179007421</v>
+        <v>0.01176935147815943</v>
       </c>
     </row>
     <row r="23">
@@ -5622,19 +5622,19 @@
         <v>3354191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3341742</v>
+        <v>3341409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3364143</v>
+        <v>3364410</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9906869862968312</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.987010138553863</v>
+        <v>0.9869118821109278</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9936263544184437</v>
+        <v>0.9937053225936</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3297</v>
@@ -5643,19 +5643,19 @@
         <v>3497840</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3482534</v>
+        <v>3484325</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3508987</v>
+        <v>3508182</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9904417726821169</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9861077609277705</v>
+        <v>0.9866147771203228</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9935981924335652</v>
+        <v>0.993370073525368</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6490</v>
@@ -5664,19 +5664,19 @@
         <v>6852031</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6834159</v>
+        <v>6835906</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6867157</v>
+        <v>6868290</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9905617939341479</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9879781282099258</v>
+        <v>0.9882306485218407</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.992748418695089</v>
+        <v>0.9929122691980745</v>
       </c>
     </row>
     <row r="24">
